--- a/data/trans_dic/P79$impuestos_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79$impuestos_2023-Provincia-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01357888073203851</v>
+        <v>0.01302979629663958</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.005345087902750697</v>
+        <v>0.007376229567746836</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.01351230434376349</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02644913454051562</v>
+        <v>0.02644913454051563</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.02007295138178451</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005340013040147197</v>
+        <v>0.005283423908921163</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01698572044044289</v>
+        <v>0.0160418997857238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01304665281688151</v>
+        <v>0.01378515422881341</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02925089631612997</v>
+        <v>0.02918115951826854</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04281734582710897</v>
+        <v>0.04147954634667161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03010950267074252</v>
+        <v>0.03075998777139242</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>0.01123778284234485</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01013588840684348</v>
+        <v>0.01013588840684349</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01066112165407041</v>
+        <v>0.01066112165407042</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002843623865165469</v>
+        <v>0.002831991594931313</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003767695835854227</v>
+        <v>0.003807951504267904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004522296435835075</v>
+        <v>0.004427298114616586</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03104447509876159</v>
+        <v>0.02792756794511739</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02660746480285787</v>
+        <v>0.03045758902152852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02220379419061433</v>
+        <v>0.02047629251289855</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>0.01535205555164112</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.007846026180214556</v>
+        <v>0.007846026180214558</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01139210898525356</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004291321993146325</v>
+        <v>0.004223886144841035</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002549090582572419</v>
+        <v>0.001715505986942439</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005270349275991855</v>
+        <v>0.004988158870503108</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04739199422813811</v>
+        <v>0.04227328890865014</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02149121310156308</v>
+        <v>0.02002277553188554</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02764041107682592</v>
+        <v>0.02712623920461758</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0008951176025578569</v>
+        <v>0.0008843435587584436</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01736167627850603</v>
+        <v>0.01984808399666932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.00714551439360213</v>
+        <v>0.008547845058723831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01038463991868096</v>
+        <v>0.009019141072789507</v>
       </c>
     </row>
     <row r="19">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.001327659660476163</v>
+        <v>0.001345345783331912</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02341912291221626</v>
+        <v>0.02311228714024571</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01392196811732042</v>
+        <v>0.01445461580672789</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01340520958944817</v>
+        <v>0.0125863687050611</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003404697959386643</v>
+        <v>0.003225149461034703</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002868233588356779</v>
+        <v>0.00279492974118601</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004391034348243894</v>
+        <v>0.004533310593672176</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01871417804141242</v>
+        <v>0.01977578841246534</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0130212757955012</v>
+        <v>0.01336743913967122</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01379518038012984</v>
+        <v>0.01333405732062862</v>
       </c>
     </row>
     <row r="25">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.02686583393078452</v>
+        <v>0.02686583393078451</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.02233324489015006</v>
+        <v>0.02233324489015007</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.02457008073969054</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01608763244019508</v>
+        <v>0.01660758459229323</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01386704204705654</v>
+        <v>0.01452984313416651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01783173347737696</v>
+        <v>0.01749165698056041</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0412316983142482</v>
+        <v>0.0416331505777036</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03288708291075845</v>
+        <v>0.03413792219288503</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03425003147641147</v>
+        <v>0.03309352402270874</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01029605918281001</v>
+        <v>0.009485435034111383</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.009399396646633739</v>
+        <v>0.00962772815988047</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01053367296108176</v>
+        <v>0.01062617340533114</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01809907695909347</v>
+        <v>0.01829296638874374</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01582886406084231</v>
+        <v>0.01597354638539947</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01601811476967736</v>
+        <v>0.01576333169350707</v>
       </c>
     </row>
     <row r="31">
@@ -1201,11 +1201,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4206</v>
+        <v>4036</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>3308</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="8">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2766</v>
+        <v>2737</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9054</v>
+        <v>8551</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13713</v>
+        <v>14489</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15153</v>
+        <v>15117</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22823</v>
+        <v>22110</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31647</v>
+        <v>32331</v>
       </c>
     </row>
     <row r="12">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2962</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="15">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9692</v>
+        <v>8719</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9120</v>
+        <v>10440</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14543</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="16">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1515</v>
+        <v>1491</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1005</v>
+        <v>676</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3938</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="19">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16729</v>
+        <v>14922</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8472</v>
+        <v>7893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20652</v>
+        <v>20268</v>
       </c>
     </row>
     <row r="20">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3506</v>
+        <v>4008</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1603</v>
+        <v>1918</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4427</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="24">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6205</v>
+        <v>6124</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3627</v>
+        <v>3765</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7044</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2317</v>
+        <v>2195</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2106</v>
+        <v>2052</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6211</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12734</v>
+        <v>13456</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9559</v>
+        <v>9813</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19514</v>
+        <v>18862</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>12556</v>
+        <v>12962</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11108</v>
+        <v>11639</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28201</v>
+        <v>27663</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>32181</v>
+        <v>32494</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>26344</v>
+        <v>27346</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>54167</v>
+        <v>52338</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>35221</v>
+        <v>32448</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>33829</v>
+        <v>34651</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>73945</v>
+        <v>74594</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>61914</v>
+        <v>62577</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>56969</v>
+        <v>57490</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>112445</v>
+        <v>110657</v>
       </c>
     </row>
     <row r="40">
